--- a/src/main/resources/template/writeTemplate.xlsx
+++ b/src/main/resources/template/writeTemplate.xlsx
@@ -23,25 +23,27 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>wuxirongzhi:</t>
+          <t>jx:area(lastCell="I4")</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-jx:area(lastCell="G3")</t>
+          <t>jx:each(items="employees" var="employee" lastCell="G3")</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +61,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="employees" var="employee" lastCell="G3")</t>
+jx:dateFormat(lastCell="I3", format="yyyy-MM-dd")</t>
         </r>
       </text>
     </comment>
@@ -94,7 +96,7 @@
     <t>${employee.age}</t>
   </si>
   <si>
-    <t>${employee.birthDate}</t>
+    <t>${utils:dateFmt(employee.birthDate,"yyyy-MM-dd")}</t>
   </si>
   <si>
     <t>${employee.payment}</t>
@@ -109,11 +111,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,18 +130,32 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,33 +167,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,98 +207,71 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -289,6 +279,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -305,13 +300,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,169 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,13 +509,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,30 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -611,6 +595,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,10 +614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +626,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -768,10 +763,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1093,18 +1088,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:G3"/>
+  <dimension ref="B2:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="45.6666666666667" customWidth="1"/>
-    <col min="3" max="4" width="17.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="19.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="17.7777777777778" customWidth="1"/>
+    <col min="4" max="5" width="29.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="17.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="25.8888888888889" customWidth="1"/>
+    <col min="10" max="11" width="9.66666666666667"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -1114,7 +1111,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1127,7 +1124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:11">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1140,12 +1137,21 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="e">
+      <c r="G3" s="2" t="e">
         <f>F3*2</f>
         <v>#VALUE!</v>
+      </c>
+      <c r="I3" s="3">
+        <v>43831</v>
+      </c>
+      <c r="J3" s="3">
+        <v>43863</v>
+      </c>
+      <c r="K3" s="3">
+        <v>43893</v>
       </c>
     </row>
   </sheetData>
